--- a/articulo_dfa/info_intercanales.xlsx
+++ b/articulo_dfa/info_intercanales.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Alfabetico" sheetId="1" r:id="rId1"/>
+    <sheet name="Stam" sheetId="2" r:id="rId2"/>
+    <sheet name="Inter" sheetId="3" r:id="rId3"/>
+    <sheet name="Redes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
   <si>
     <t>Nombre_archivo</t>
   </si>
@@ -98,6 +101,12 @@
   </si>
   <si>
     <t>FP2_P4</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -471,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -597,4 +606,437 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>